--- a/dfdata/20220710/df_kicc_history_20220710.xlsx
+++ b/dfdata/20220710/df_kicc_history_20220710.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="groupped" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -2478,4 +2500,203 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>매입카드사</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>갯수:건수</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>합계:금액</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>하나구외환</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>KEB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1589600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1832914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>삼성카드</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>106590</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92350</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>신한카드</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92233</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>비씨카드</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2213320</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>국민카드</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>KB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1225501</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>현대카드</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>130300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7282808</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>